--- a/storage/data/cost_inscriptions.xlsx
+++ b/storage/data/cost_inscriptions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -33,9 +33,6 @@
     <t>active</t>
   </si>
   <si>
-    <t>scolary_year_id</t>
-  </si>
-  <si>
     <t>Inscription</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
   </si>
   <si>
     <t>Bascule</t>
-  </si>
-  <si>
-    <t>school_id</t>
   </si>
 </sst>
 </file>
@@ -867,18 +861,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="7" width="17" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -891,19 +885,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -911,19 +899,13 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>15</v>
@@ -931,19 +913,13 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -951,19 +927,13 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>25</v>
@@ -971,19 +941,13 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -991,19 +955,13 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -1011,50 +969,46 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
       <c r="C8">
-        <v>7</v>
+        <v>15500</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="D10">
         <v>1</v>
       </c>
     </row>
